--- a/Incentive_Computation_For_checking_Ma'am Jean.xlsx
+++ b/Incentive_Computation_For_checking_Ma'am Jean.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DGMU_System_Collection\DGMU_HRMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_Projects\SGC_HRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A11349-5062-4AF6-816E-75BE91301A46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="INCENTIVES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Incentive_Computation_For_checking_Ma'am Jean.xlsx
+++ b/Incentive_Computation_For_checking_Ma'am Jean.xlsx
@@ -23,6 +23,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Russel^</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">input quantity of item
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Default Multiplier depend on Area Location
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
@@ -44,40 +84,40 @@
     <t>TOTAL PRODUCT</t>
   </si>
   <si>
+    <t>Fix per Chicken</t>
+  </si>
+  <si>
+    <t>Incentive Distribution</t>
+  </si>
+  <si>
+    <t>Incentives</t>
+  </si>
+  <si>
+    <t>Fix Value Per Emp</t>
+  </si>
+  <si>
+    <t>% Distributed</t>
+  </si>
+  <si>
+    <t>Total Diff * Fix Per Chicken</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>INCENTIVES - Branch Performance Bonus</t>
+  </si>
+  <si>
     <t>BRANCH SALE 
 -
-TOTAL PRODUCT</t>
-  </si>
-  <si>
-    <t>Fix per Chicken</t>
-  </si>
-  <si>
-    <t>Incentive Distribution</t>
-  </si>
-  <si>
-    <t>Incentives</t>
-  </si>
-  <si>
-    <t>INCENTIVES</t>
-  </si>
-  <si>
-    <t>Fix Value Per Emp</t>
-  </si>
-  <si>
-    <t>% Distributed</t>
-  </si>
-  <si>
-    <t>Total Diff * Fix Per Chicken</t>
-  </si>
-  <si>
-    <t>Wife</t>
+Total Product of Attendance * Fix Value Per Employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +141,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -111,13 +166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,13 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +314,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,31 +601,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -592,7 +647,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>6.5</v>
@@ -614,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -669,12 +724,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>27</v>
       </c>
       <c r="D11" s="2">
@@ -702,12 +757,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17">
         <f xml:space="preserve"> B4-D12</f>
         <v>1261</v>
       </c>
@@ -724,9 +779,9 @@
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18">
         <f>C14 * B5</f>
         <v>8196.5</v>
       </c>
@@ -742,7 +797,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -752,10 +807,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -804,9 +859,9 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="15">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13">
         <v>0.05</v>
       </c>
       <c r="C23" s="8">
@@ -846,5 +901,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>